--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/43.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/43.xlsx
@@ -479,13 +479,13 @@
         <v>-23.80073658272469</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.858150078128215</v>
+        <v>-8.977892279918642</v>
       </c>
       <c r="F2" t="n">
-        <v>6.473329318618261</v>
+        <v>6.169928292564101</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.13356895188107</v>
+        <v>-15.95856413979572</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-23.59599535334128</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.054861928325151</v>
+        <v>-9.201783750815</v>
       </c>
       <c r="F3" t="n">
-        <v>6.408941373242653</v>
+        <v>6.099910656966551</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.67040255424933</v>
+        <v>-15.49838278721189</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-23.01121263950895</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.081766610664896</v>
+        <v>-9.245904811391616</v>
       </c>
       <c r="F4" t="n">
-        <v>6.500744600768836</v>
+        <v>6.204230126009424</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.83455066392501</v>
+        <v>-14.68925228698754</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-22.03642963197125</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.06154218612831</v>
+        <v>-10.20427447170881</v>
       </c>
       <c r="F5" t="n">
-        <v>6.580974232582934</v>
+        <v>6.278960990629996</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.74550672894456</v>
+        <v>-13.65321908621323</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-20.72177309854469</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.66526754706882</v>
+        <v>-10.80683461769641</v>
       </c>
       <c r="F6" t="n">
-        <v>6.786025879690047</v>
+        <v>6.477545040133298</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.9817148734611</v>
+        <v>-12.9023624259374</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-19.11731174952766</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.53263261033318</v>
+        <v>-11.65179875079857</v>
       </c>
       <c r="F7" t="n">
-        <v>7.111814743603558</v>
+        <v>6.798070798304435</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.54706032806476</v>
+        <v>-11.52090190698699</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.30858892912182</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.33868641938972</v>
+        <v>-12.45827151354605</v>
       </c>
       <c r="F8" t="n">
-        <v>7.41568709256002</v>
+        <v>7.088484259939603</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.76730895541724</v>
+        <v>-10.76838252425026</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.36017424424684</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.09057737159005</v>
+        <v>-13.19887690069681</v>
       </c>
       <c r="F9" t="n">
-        <v>7.482195990995989</v>
+        <v>7.152479436229959</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.443454568970422</v>
+        <v>-9.506598745576067</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.36374026382794</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.15663122278044</v>
+        <v>-14.25721938551342</v>
       </c>
       <c r="F10" t="n">
-        <v>7.614035480612171</v>
+        <v>7.299270335691393</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.759224637856134</v>
+        <v>-8.84603969799962</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.37149361074809</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.04583424718479</v>
+        <v>-15.14440619528015</v>
       </c>
       <c r="F11" t="n">
-        <v>7.84985403939734</v>
+        <v>7.528097604759081</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.862218600958114</v>
+        <v>-7.996702735748324</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.464111935726327</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.36284135924538</v>
+        <v>-16.43149739534739</v>
       </c>
       <c r="F12" t="n">
-        <v>7.76391616354425</v>
+        <v>7.45375950922376</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.409958091593529</v>
+        <v>-7.554758961023019</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.677381490086786</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.40047182096638</v>
+        <v>-17.43805982242498</v>
       </c>
       <c r="F13" t="n">
-        <v>7.700758894635764</v>
+        <v>7.379290490660022</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.221756238243716</v>
+        <v>-7.339325117762416</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.076241406763009</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.82810889203956</v>
+        <v>-18.84186890232621</v>
       </c>
       <c r="F14" t="n">
-        <v>7.648127837212026</v>
+        <v>7.351534808635563</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.254182689028793</v>
+        <v>-6.401549649815262</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.679176638505086</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.94595589327182</v>
+        <v>-19.94048331068397</v>
       </c>
       <c r="F15" t="n">
-        <v>7.658968263964974</v>
+        <v>7.358971236649663</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.801202103007913</v>
+        <v>-5.943319050354849</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.51516583825405</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.92327011580098</v>
+        <v>-20.90964102854274</v>
       </c>
       <c r="F16" t="n">
-        <v>7.530035265579656</v>
+        <v>7.251457245713409</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.178898764334989</v>
+        <v>-5.328137924427825</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.571892360704929</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.06350495489259</v>
+        <v>-22.02260460081504</v>
       </c>
       <c r="F17" t="n">
-        <v>7.863470034352735</v>
+        <v>7.574365803001741</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.343246441907176</v>
+        <v>-5.4585634453371</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.837076936782398</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.94477404377485</v>
+        <v>-22.89473526231378</v>
       </c>
       <c r="F18" t="n">
-        <v>8.287084585099624</v>
+        <v>7.981484052168055</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.773678899080726</v>
+        <v>-4.895987192228131</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.276656546613416</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.5646683987249</v>
+        <v>-23.52121504559321</v>
       </c>
       <c r="F19" t="n">
-        <v>8.594701332668819</v>
+        <v>8.288760399863365</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.909730926858064</v>
+        <v>-4.045406461206872</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.8594828413552005</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.47551299972663</v>
+        <v>-24.41967432810666</v>
       </c>
       <c r="F20" t="n">
-        <v>8.814547281987084</v>
+        <v>8.505464196499615</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.542452555239123</v>
+        <v>-3.652598099046565</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.5524982352826078</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.51545761569673</v>
+        <v>-24.50442080440116</v>
       </c>
       <c r="F21" t="n">
-        <v>8.638612916399969</v>
+        <v>8.343093456656529</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.538655787415022</v>
+        <v>-3.637136089390486</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.3276316818626736</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.18090009223314</v>
+        <v>-25.17608212478738</v>
       </c>
       <c r="F22" t="n">
-        <v>9.046202488468586</v>
+        <v>8.744817677052051</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.004820322397521</v>
+        <v>-4.065149653892195</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.1662608706556977</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.28197267017127</v>
+        <v>-25.29162169736562</v>
       </c>
       <c r="F23" t="n">
-        <v>8.638141593497666</v>
+        <v>8.368649631803578</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.902792006351949</v>
+        <v>-3.950029035004897</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.05477692725488106</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.70522063643859</v>
+        <v>-25.71380918710276</v>
       </c>
       <c r="F24" t="n">
-        <v>8.60941708106292</v>
+        <v>8.3444026869407</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.813450131760011</v>
+        <v>-3.849231395426448</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.008535651682999846</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.68665575100902</v>
+        <v>-25.72669201309902</v>
       </c>
       <c r="F25" t="n">
-        <v>8.741963555032555</v>
+        <v>8.476425468796666</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.678442304856132</v>
+        <v>-3.719303382025159</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.02400165243104145</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.01646395189494</v>
+        <v>-26.0492078013021</v>
       </c>
       <c r="F26" t="n">
-        <v>8.632642826304142</v>
+        <v>8.372001261331059</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.509473044380815</v>
+        <v>-3.542792955113008</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.01353911325766162</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.00843837025296</v>
+        <v>-26.03047271593559</v>
       </c>
       <c r="F27" t="n">
-        <v>8.524526589437167</v>
+        <v>8.279857633930991</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.663896756398974</v>
+        <v>-3.679686073626096</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.1049524767374612</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.93597247402401</v>
+        <v>-25.96061218797214</v>
       </c>
       <c r="F28" t="n">
-        <v>8.420023828154511</v>
+        <v>8.16197453914409</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.926358151467057</v>
+        <v>-3.915805755376625</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.2487526886069555</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.73136596521351</v>
+        <v>-25.78903755923132</v>
       </c>
       <c r="F29" t="n">
-        <v>8.356395236343722</v>
+        <v>8.101200069352798</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.735498560640374</v>
+        <v>-3.73183271584469</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.4388373013590557</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.63316060159773</v>
+        <v>-25.68496684394244</v>
       </c>
       <c r="F30" t="n">
-        <v>8.458986521411488</v>
+        <v>8.197035726154231</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.870113618459001</v>
+        <v>-3.867442788679289</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.6657459605447353</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.31978324077817</v>
+        <v>-25.36979583763356</v>
       </c>
       <c r="F31" t="n">
-        <v>8.278810249703653</v>
+        <v>8.024191144037765</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.310931455139918</v>
+        <v>-4.287666432990171</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.9197998447090689</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.87421289816571</v>
+        <v>-24.9334817531302</v>
       </c>
       <c r="F32" t="n">
-        <v>8.466658610876738</v>
+        <v>8.194181604134736</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.182469779656902</v>
+        <v>-4.178712288741327</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.187274121245804</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.75615960344187</v>
+        <v>-24.80363229354596</v>
       </c>
       <c r="F33" t="n">
-        <v>8.519630068174363</v>
+        <v>8.233825097139482</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.317412145046572</v>
+        <v>-4.30828680996589</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.458603254350137</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.3790227277831</v>
+        <v>-24.41725225208094</v>
       </c>
       <c r="F34" t="n">
-        <v>8.650238881323421</v>
+        <v>8.354431390917464</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.336932768583586</v>
+        <v>-4.335924661264773</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.721417108368608</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.19997239411966</v>
+        <v>-24.23877797974253</v>
       </c>
       <c r="F35" t="n">
-        <v>8.53803784596983</v>
+        <v>8.246131861810705</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.492338403314874</v>
+        <v>-4.487716820411745</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.969915892704189</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.88781261746438</v>
+        <v>-23.91089434737435</v>
       </c>
       <c r="F36" t="n">
-        <v>8.70491233799047</v>
+        <v>8.397059928970123</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.372426001587505</v>
+        <v>-4.385400473703656</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.196284231286922</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.26287772592027</v>
+        <v>-23.29622382125815</v>
       </c>
       <c r="F37" t="n">
-        <v>8.650291250534789</v>
+        <v>8.349665792683075</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.48949737359822</v>
+        <v>-4.497352755303256</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.398725448031586</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.792392731</v>
+        <v>-22.81895701346587</v>
       </c>
       <c r="F38" t="n">
-        <v>8.675480841202269</v>
+        <v>8.360951357732644</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.488646373913507</v>
+        <v>-4.495100879214479</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.57294075348007</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.63042785254501</v>
+        <v>-22.64391292447199</v>
       </c>
       <c r="F39" t="n">
-        <v>8.828896445901616</v>
+        <v>8.515466715870694</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.757771751128029</v>
+        <v>-4.747821600968317</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.718995493556744</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.92672966710508</v>
+        <v>-21.94308195335439</v>
       </c>
       <c r="F40" t="n">
-        <v>9.126929627790668</v>
+        <v>8.800695625580538</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.688775315152133</v>
+        <v>-4.690791529789758</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.834433829276697</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.21597473043345</v>
+        <v>-21.24702967277403</v>
       </c>
       <c r="F41" t="n">
-        <v>9.101609114094769</v>
+        <v>8.779250433525791</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.733760467716303</v>
+        <v>-4.728209331311411</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.919937448582698</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.52145424928557</v>
+        <v>-20.54763885496902</v>
       </c>
       <c r="F42" t="n">
-        <v>9.069899556612109</v>
+        <v>8.755998503678885</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.063542483996541</v>
+        <v>-5.057611670809239</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.975196822825021</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.63693826929855</v>
+        <v>-19.69034177258996</v>
       </c>
       <c r="F43" t="n">
-        <v>9.20241984597606</v>
+        <v>8.879877873167297</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.220702487308621</v>
+        <v>-5.212912567117794</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.003811068091136</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.97493906840952</v>
+        <v>-19.01955763649412</v>
       </c>
       <c r="F44" t="n">
-        <v>8.920175981314131</v>
+        <v>8.615779940243998</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.988052265811149</v>
+        <v>-4.996719370292372</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.0097873411134</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.47571646875166</v>
+        <v>-18.52114675961245</v>
       </c>
       <c r="F45" t="n">
-        <v>8.996792137543911</v>
+        <v>8.679356162843421</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.135550149626035</v>
+        <v>-5.150331359534343</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.000931127313297</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.83788565890845</v>
+        <v>-17.87632466005176</v>
       </c>
       <c r="F46" t="n">
-        <v>9.02318622007283</v>
+        <v>8.72462934607011</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.259966303530957</v>
+        <v>-5.278478819749158</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.985592141521698</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.71801253408961</v>
+        <v>-17.74028254122338</v>
       </c>
       <c r="F47" t="n">
-        <v>8.885193348121039</v>
+        <v>8.591375887747022</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.570345526999757</v>
+        <v>-5.582599922459613</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.974379389299336</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.04294721496453</v>
+        <v>-17.07815241730593</v>
       </c>
       <c r="F48" t="n">
-        <v>8.80025048728392</v>
+        <v>8.51368616268422</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.668197398438818</v>
+        <v>-5.679784086453745</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.9777965706723</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.15477848248467</v>
+        <v>-16.20479107934007</v>
       </c>
       <c r="F49" t="n">
-        <v>8.718659255974282</v>
+        <v>8.440578743616021</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.84259996459345</v>
+        <v>-5.861701634439529</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.005751841684862</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.60007070338358</v>
+        <v>-15.65123542288905</v>
       </c>
       <c r="F50" t="n">
-        <v>8.464275811759546</v>
+        <v>8.187242683628622</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.098240269880994</v>
+        <v>-6.108190420040706</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.067784097756144</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.87403704929566</v>
+        <v>-14.93025539769803</v>
       </c>
       <c r="F51" t="n">
-        <v>8.255663058279481</v>
+        <v>7.995519000814385</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.022671497878551</v>
+        <v>-6.043357336368478</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.169332438080819</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.16677775748278</v>
+        <v>-14.2364419009036</v>
       </c>
       <c r="F52" t="n">
-        <v>8.101514284620999</v>
+        <v>7.85137274652698</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.14584388301351</v>
+        <v>-6.177867655764372</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.31648730489268</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.69019174943826</v>
+        <v>-13.75529977147017</v>
       </c>
       <c r="F53" t="n">
-        <v>8.167499490943298</v>
+        <v>7.91060232458295</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.17717376371376</v>
+        <v>-6.216908902838399</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.507934636191537</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.27093693553767</v>
+        <v>-13.32852997573842</v>
       </c>
       <c r="F54" t="n">
-        <v>7.95035055601043</v>
+        <v>7.695940927190009</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.402400649499974</v>
+        <v>-6.442489280801339</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.746185105803926</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.68821162835529</v>
+        <v>-12.74308146956496</v>
       </c>
       <c r="F55" t="n">
-        <v>7.868602217066692</v>
+        <v>7.629458213359724</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.762635362190067</v>
+        <v>-6.783779431279454</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.024541409798053</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.37995335794684</v>
+        <v>-12.44097658149213</v>
       </c>
       <c r="F56" t="n">
-        <v>7.94595154225561</v>
+        <v>7.696228957852527</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.676055963497732</v>
+        <v>-6.713905811013162</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.342286841664911</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.92259994277683</v>
+        <v>-11.98347915099085</v>
       </c>
       <c r="F57" t="n">
-        <v>7.558785962620086</v>
+        <v>7.326161925728297</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.909478630862866</v>
+        <v>-6.948310401091426</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.68915090607663</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.48110130634814</v>
+        <v>-11.54542379020954</v>
       </c>
       <c r="F58" t="n">
-        <v>7.736003373885691</v>
+        <v>7.488558850177068</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.741690860997184</v>
+        <v>-7.746495736140098</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.062054100619617</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.52600790509526</v>
+        <v>-11.55629040156817</v>
       </c>
       <c r="F59" t="n">
-        <v>7.585415706600157</v>
+        <v>7.343365211662325</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.709509980612221</v>
+        <v>-7.736912170459954</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.449314602102169</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.33039580833703</v>
+        <v>-11.35362155357826</v>
       </c>
       <c r="F60" t="n">
-        <v>7.422076136346783</v>
+        <v>7.185184008728592</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.955671458642355</v>
+        <v>-7.975833605018613</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.847687354146165</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.38510854191261</v>
+        <v>-11.39855433693106</v>
       </c>
       <c r="F61" t="n">
-        <v>7.239569434733122</v>
+        <v>7.009590043015361</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.419963794318486</v>
+        <v>-8.433645250788089</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.247229938485688</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.53163759531721</v>
+        <v>-11.52048295329605</v>
       </c>
       <c r="F62" t="n">
-        <v>7.325769156643046</v>
+        <v>7.072118881387445</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.677567945032289</v>
+        <v>-8.682202620238259</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.646105689836278</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.15217028975262</v>
+        <v>-11.1493423523388</v>
       </c>
       <c r="F63" t="n">
-        <v>7.686304992298498</v>
+        <v>7.413539954893977</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.73946835286797</v>
+        <v>-8.743147289966494</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.036973970860767</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.83514017644022</v>
+        <v>-10.85632352243813</v>
       </c>
       <c r="F64" t="n">
-        <v>7.529747234917138</v>
+        <v>7.25821287397974</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.00365793191116</v>
+        <v>-8.991115505788786</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.418898943465702</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.84135902029004</v>
+        <v>-10.86466331934831</v>
       </c>
       <c r="F65" t="n">
-        <v>7.506521489675916</v>
+        <v>7.232604329621323</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.06312317141828</v>
+        <v>-9.050004683970871</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.787541938894222</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.5399742088735</v>
+        <v>-10.57413202698757</v>
       </c>
       <c r="F66" t="n">
-        <v>7.307727963327148</v>
+        <v>7.04674599848018</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.489997705572758</v>
+        <v>-9.459374809225961</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.142259495918523</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.76895858557529</v>
+        <v>-10.79920180513968</v>
       </c>
       <c r="F67" t="n">
-        <v>7.074789711167157</v>
+        <v>6.812289039190549</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.5396175333429</v>
+        <v>-9.507803237437505</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.480026532245322</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.97225586410162</v>
+        <v>-10.97885438473385</v>
       </c>
       <c r="F68" t="n">
-        <v>7.041770923400324</v>
+        <v>6.777358775208825</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.372612118293842</v>
+        <v>-9.336359531725103</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.798504009561015</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.78210325762839</v>
+        <v>-10.79062634677835</v>
       </c>
       <c r="F69" t="n">
-        <v>6.99471718698716</v>
+        <v>6.738212789712064</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.342827129328915</v>
+        <v>-9.314639401310679</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.095450082002028</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.06068127749463</v>
+        <v>-11.05886144739963</v>
       </c>
       <c r="F70" t="n">
-        <v>6.824464880833355</v>
+        <v>6.562854485449985</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.514349388858369</v>
+        <v>-9.462451500393767</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.367271303548653</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.00835134303625</v>
+        <v>-11.01056394221651</v>
       </c>
       <c r="F71" t="n">
-        <v>6.416980047187472</v>
+        <v>6.179799888906763</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.470189051373227</v>
+        <v>-9.421407130984955</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.613427993133794</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.01972855420571</v>
+        <v>-11.03079155010697</v>
       </c>
       <c r="F72" t="n">
-        <v>6.711923445605877</v>
+        <v>6.451334249844161</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.793411823929759</v>
+        <v>-9.722242065682137</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.829797923140392</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.46671286552509</v>
+        <v>-11.46883381858544</v>
       </c>
       <c r="F73" t="n">
-        <v>6.863296651061915</v>
+        <v>6.591500444067681</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.462700254147759</v>
+        <v>-9.41272693420089</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.01632980514251</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.60013652378512</v>
+        <v>-11.60763841331342</v>
       </c>
       <c r="F74" t="n">
-        <v>6.772383700128969</v>
+        <v>6.515669826008404</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.566129446597396</v>
+        <v>-9.507279545323836</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.16769676298039</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.14653069058171</v>
+        <v>-12.14151633859333</v>
       </c>
       <c r="F75" t="n">
-        <v>6.757144259621199</v>
+        <v>6.48993035862157</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.79061007112163</v>
+        <v>-9.704069949337821</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.28298156872316</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.98927904114974</v>
+        <v>-12.00957211055441</v>
       </c>
       <c r="F76" t="n">
-        <v>6.647509315624585</v>
+        <v>6.383070982827402</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.873720009560907</v>
+        <v>-9.770945432253358</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.35556592439863</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.73620801057305</v>
+        <v>-12.73241124274895</v>
       </c>
       <c r="F77" t="n">
-        <v>6.581000417188617</v>
+        <v>6.328004757075102</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.607134539097681</v>
+        <v>-9.507475929866462</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.38318825547877</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.42787436970144</v>
+        <v>-13.42558321670414</v>
       </c>
       <c r="F78" t="n">
-        <v>6.634050428303291</v>
+        <v>6.377074708125892</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.930982558836739</v>
+        <v>-8.864866429486021</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.35818616516516</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.63394721643021</v>
+        <v>-13.65600774671852</v>
       </c>
       <c r="F79" t="n">
-        <v>6.84035893648321</v>
+        <v>6.572857004821063</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.213684654098129</v>
+        <v>-9.112991752942413</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.27779556207686</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.23771185427925</v>
+        <v>-14.25426052507119</v>
       </c>
       <c r="F80" t="n">
-        <v>6.819542174964866</v>
+        <v>6.561073932263509</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.583264087663336</v>
+        <v>-8.507485838815425</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.13470299046288</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.83085863452365</v>
+        <v>-14.84075641547199</v>
       </c>
       <c r="F81" t="n">
-        <v>6.957247016254141</v>
+        <v>6.68228247197221</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.434849742649529</v>
+        <v>-8.355680587365612</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.927639393001403</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.6714892153852</v>
+        <v>-15.68450296440987</v>
       </c>
       <c r="F82" t="n">
-        <v>7.004719706358239</v>
+        <v>6.720904765355302</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.333960456951187</v>
+        <v>-8.251217102991479</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.65093904732254</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.6777112425889</v>
+        <v>-16.68828982328501</v>
       </c>
       <c r="F83" t="n">
-        <v>7.168609153330967</v>
+        <v>6.879138337500403</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.218433976675797</v>
+        <v>-8.124391965363678</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.307286709995161</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.5431779219412</v>
+        <v>-17.56743795910691</v>
       </c>
       <c r="F84" t="n">
-        <v>7.130824767329745</v>
+        <v>6.836117030362491</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.874263519572502</v>
+        <v>-7.784489598986786</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.895072564074878</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.38455476406472</v>
+        <v>-18.41640833687864</v>
       </c>
       <c r="F85" t="n">
-        <v>7.295237906416141</v>
+        <v>7.008987797084642</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.615808369173988</v>
+        <v>-7.53830193635097</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.423871003280064</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.66760044255388</v>
+        <v>-19.69760800066711</v>
       </c>
       <c r="F86" t="n">
-        <v>7.161015617682765</v>
+        <v>6.879635845008388</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.689845341743949</v>
+        <v>-7.591849454973629</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.898311263200088</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.69774210704941</v>
+        <v>-20.73504207784548</v>
       </c>
       <c r="F87" t="n">
-        <v>7.274421144897796</v>
+        <v>6.977252054996298</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.108180511091743</v>
+        <v>-7.036107383948041</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.33590504352611</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.97430709563191</v>
+        <v>-22.0324761971577</v>
       </c>
       <c r="F88" t="n">
-        <v>7.611966896763178</v>
+        <v>7.301469842568802</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.172201871987784</v>
+        <v>-7.104056435696599</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.746385001412217</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.67434261963004</v>
+        <v>-23.71221865175115</v>
       </c>
       <c r="F89" t="n">
-        <v>7.432314317169013</v>
+        <v>7.126949445688594</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.853207913249127</v>
+        <v>-6.791949028252692</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.152430058130393</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.84506943204003</v>
+        <v>-24.91965628132934</v>
       </c>
       <c r="F90" t="n">
-        <v>7.767817669791085</v>
+        <v>7.445301881588005</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.265039391438463</v>
+        <v>-7.187834081580804</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.564628576819616</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.58366178790704</v>
+        <v>-26.65331283902502</v>
       </c>
       <c r="F91" t="n">
-        <v>7.855483729619283</v>
+        <v>7.528883142929584</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.795470857717116</v>
+        <v>-6.735442649187802</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.005159707047267</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.57887637177473</v>
+        <v>-28.64168014850648</v>
       </c>
       <c r="F92" t="n">
-        <v>7.526343236178289</v>
+        <v>7.221475872205856</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.054515161743508</v>
+        <v>-6.985610371887503</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.479359390573408</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.4332701462768</v>
+        <v>-30.49566806162047</v>
       </c>
       <c r="F93" t="n">
-        <v>7.595261118337135</v>
+        <v>7.274106929629595</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.262862885812858</v>
+        <v>-6.234243111800844</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.001910103764668</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.39448401966453</v>
+        <v>-32.45929091873107</v>
       </c>
       <c r="F94" t="n">
-        <v>7.534827048419728</v>
+        <v>7.228074392838086</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.658158785513093</v>
+        <v>-6.610110034083958</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.568613323021606</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.77838289029738</v>
+        <v>-34.81881192147263</v>
       </c>
       <c r="F95" t="n">
-        <v>7.521446714915483</v>
+        <v>7.204010740214994</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.967317241463733</v>
+        <v>-5.961726828150316</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.178768817225821</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.22168153892314</v>
+        <v>-37.25230443526993</v>
       </c>
       <c r="F96" t="n">
-        <v>7.253394906533984</v>
+        <v>6.941667175872486</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.876731598101831</v>
+        <v>-5.882047073055571</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.819008840983253</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.17259176997442</v>
+        <v>-39.21266730897295</v>
       </c>
       <c r="F97" t="n">
-        <v>7.206995785262907</v>
+        <v>6.891759317439827</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.436921868739727</v>
+        <v>-5.465633288871632</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.474427090449212</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.58403684578627</v>
+        <v>-41.62585366106273</v>
       </c>
       <c r="F98" t="n">
-        <v>7.129410798622838</v>
+        <v>6.814095776982708</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.610970942717633</v>
+        <v>-5.642261546509358</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.133503153114306</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.01650815996192</v>
+        <v>-44.03600259889325</v>
       </c>
       <c r="F99" t="n">
-        <v>6.946537512529608</v>
+        <v>6.636642704265952</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.349517654968364</v>
+        <v>-5.392159285323865</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.776300867046671</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.1227323796246</v>
+        <v>-46.15204604568722</v>
       </c>
       <c r="F100" t="n">
-        <v>6.671180199162426</v>
+        <v>6.372937540427906</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.396532114473002</v>
+        <v>-5.440234221358684</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.410089842087175</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.54122111436529</v>
+        <v>-48.5662012281873</v>
       </c>
       <c r="F101" t="n">
-        <v>6.666650262379188</v>
+        <v>6.356048469762079</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.378870597939513</v>
+        <v>-5.437641945396022</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.011535182307252</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.07052310035835</v>
+        <v>-51.07213345360788</v>
       </c>
       <c r="F102" t="n">
-        <v>5.870978649476129</v>
+        <v>5.598606381156859</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.067011944249598</v>
+        <v>-5.138338810131322</v>
       </c>
     </row>
   </sheetData>
